--- a/data/22_Questions_07.xlsx
+++ b/data/22_Questions_07.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuou-my.sharepoint.com/personal/jhlee409_mail_ulsan_ac_kr/Documents/LLM/CPX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuou-my.sharepoint.com/personal/jhlee409_mail_ulsan_ac_kr/Documents/LLM/CPX/sinarios 원본/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:3_{09E73514-BE3A-455D-AC87-E4A2CBD022B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:3_{646C3E2B-344B-4501-950E-A4A0013B3405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40695" yWindow="1620" windowWidth="33675" windowHeight="15435" xr2:uid="{ABCB648B-F16E-4ED9-8EE5-880306947D1E}"/>
+    <workbookView xWindow="2835" yWindow="480" windowWidth="33675" windowHeight="19395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t>Chief complaint 라서 당연히 제일 중요합니다.</t>
   </si>
@@ -187,10 +176,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기능성 원인에 의한 설사일 경우 자다가 깨서 급하게 설사를 보는 경우는 드물기 때문에 기질적 원인과의 감별에 중요한 소견</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#   &lt;보통 식사 후 5분에서 30분이내에 설사를 하게 되는데, 식사 후 아랫 배에 약한 통증 또는 차가운 느낌이 들면서 항문 근처 장에 뭔가 꽉 차는 느낌과 대변이 아래로 마구 밀려 내려오는 느낌, 그리고 대장이 꿈틀꿈틀거리며 움직이는 느낌이 들고, 곧 묽은 변을 보게 됩니다. 아랫배의 불편감은 배변 후 호전됩니다.&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -246,7 +231,87 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>만성 설사(4주 이상 설사)의 흔한 원인 5가지는</t>
+    <t>설사가 악화된 기간, 설사시 시 동반 증상을 확인합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">설사가 식사와 관련성을 확인하며 식후에 30분이내 설사시 약제, 유당섭취력이 없다면 과민성 장증후군이 가장흔한 원인입니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">만성설사의 원인 중 발열, 식욕소실, 체중감소, 소변이상이 없으므로  염증성 장질환에 의한 설사는 가능성이 낮읍니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">증상은 오래되었지만 3년전 대장내시경 검사가 정상이었으므로 기능성 설사일  가능성이 높습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vagotome, gastrectomy, blind loop with bacterial overgrowth 수술력이 없으므로 앞 수술과 관련된  설사, 당뇨, 갑상성 기능항진증등의 의한 설사일 가능성은 없습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">알코올은 설사를 유발할 가능성이 있습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">긴장하면 설사를 하는 것은 과민성 대장 증후군의 가능성이 높습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">만성 염증성장질환등은 가족력이 있으므로 염증성 장질환에 의한 설사 가능성은 낮습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">흡연이 크론병과 같은 염증성 장질환의 발생을 증가시기는 하지만 끊은 상태이므로 염증성 장질환의 가눙성은 낮습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">혈액검사, 변검사, 대장내시경검사를 받게 되실 겁니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">만성 설사(4주 이상 설사)의 흔한 원인 5가지는  과민성 장증후군, 음식 알러지, 염증성 장질환, 감염성 설사, 유당불내성  등이 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물론 검사를 해보아야 겠지만 과민성 장증군, 알코올 유발성 설사, 음식알러지 등을 감별해야 할 것 같습니다. 너무 걱정하지 마세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">긴장하거나 스트레스로 설사를 하는 것은 과민성 대장 증후군의 가능성이 높습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">유병기간의 추측에 중요한 질문이며 35세 여성이 대학생때부터 설사를 했으므로 만성 설사를 시사하는 질문입니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하루중 설사 횟수가 3회 이상으로 만성 설사에 합당합니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">만성 설사 중 설사양이 많을 때는 삼투성, 분비성 설사를 의심해야하며, 많지 않을 때는 과민성 대장증후군. 염증성 질환에 의한 설사를 감별해야햡니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기질성 설사의 경우는 밤에 설사를 하는 경우도 흔하며 기능성 원인에 의한 설사일 경우 자다가 깨서 급하게 설사를 보는 경우는 드물기 때문에.  기능성 설사를 시사하는 소견입니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">점맥변이나 혈변은 장에 염증에 의한 설사이나 상기 증상이 없으므로 대장에 염증에 의한 염증성 설사의 가능성은 낮습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">항문농양, 치루 등의 동반증상을 확인할 수 있으면 항문질환이 동반되면 크론병과 같은 염증성 장질환의 감별진단에 도움이 됩니다. 본 환자는 상기 증상이 없으므로  크론병의 가능성은 낮습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아스피린 등은 장기 복용시 설사를 유발할 수 있으나 본 환자는 투약력이 없으므로  약제유발성 설사의 가능성은 낮습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">만성 설사의 원인 중  아메바나 지아르디아 기생충 감염은 동남아 여행 후 발생할 수 있으나 본 환자는 동남아  출장후 몸이 더 불편해지지는 않았으므로  아메바, 지아르디아 등의 기생충감염의 가능성은 없습니다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -703,19 +768,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7E7CE2-D32C-4075-BB3A-F845BF42855D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="143.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="127.25" customWidth="1"/>
+    <col min="2" max="2" width="107.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="109.5" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -763,7 +828,9 @@
       <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -775,7 +842,9 @@
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -787,9 +856,11 @@
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -799,9 +870,11 @@
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -812,164 +885,190 @@
         <v>5</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
@@ -992,7 +1091,9 @@
       <c r="C24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
@@ -1004,7 +1105,9 @@
       <c r="C25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
@@ -1016,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
